--- a/modelagem/HROADS-fisico.xlsx
+++ b/modelagem/HROADS-fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marda\OneDrive\Área de Trabalho\TrabalhosBiel\Senai\sprint-1-bd\HROADS-G15M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\AngeloG\HROADS-G15M\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA702E4-2AD6-4176-997F-BCE77D210786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2777E-4E02-44AF-8D6B-C4524C8B0FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C158620-B499-4608-A628-D7B64B0D14E0}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>TipoHabilidade</t>
   </si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>Magia</t>
+  </si>
+  <si>
+    <t>HabClasses</t>
+  </si>
+  <si>
+    <t>idHabClasses</t>
   </si>
 </sst>
 </file>
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,19 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,6 +275,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB6B681-648B-4E88-8AC9-9E5B59DD4D28}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,291 +639,388 @@
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="J1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15">
+        <v>100</v>
+      </c>
+      <c r="E3" s="15">
+        <v>80</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="16">
+        <v>43483</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15">
+        <v>70</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42446</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="15">
+        <v>75</v>
+      </c>
+      <c r="E5" s="15">
+        <v>60</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16">
+        <v>43177</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="K10" s="12">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="K11" s="12">
+        <v>3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="M12" s="12">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="E15" s="14">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43177</v>
-      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:G12"/>
+  <mergeCells count="5">
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/modelagem/HROADS-fisico.xlsx
+++ b/modelagem/HROADS-fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\AngeloG\HROADS-G15M\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2777E-4E02-44AF-8D6B-C4524C8B0FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D32227-42AF-4673-B0E1-9CEF0AB0542C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C158620-B499-4608-A628-D7B64B0D14E0}"/>
   </bookViews>
@@ -263,55 +263,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,12 +638,11 @@
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.21875" customWidth="1"/>
@@ -652,367 +651,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>100</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>80</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="12">
         <v>43483</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>70</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>100</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>42446</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>75</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>43177</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="E7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="3" t="s">
+      <c r="I7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="M7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="12">
-        <v>2</v>
-      </c>
-      <c r="M10" s="12">
-        <v>2</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>2</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="12">
-        <v>3</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="M12" s="12">
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="M12" s="8">
         <v>4</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
         <v>4</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
         <v>6</v>
       </c>
-      <c r="F14" s="11">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
         <v>6</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/modelagem/HROADS-fisico.xlsx
+++ b/modelagem/HROADS-fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\AngeloG\HROADS-G15M\modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marda\OneDrive\Área de Trabalho\TrabalhosBiel\Senai\sprint-1-bd\HROADS-G15M\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D32227-42AF-4673-B0E1-9CEF0AB0542C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8CBF71-9AE3-4B19-80DF-523DFEE257FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C158620-B499-4608-A628-D7B64B0D14E0}"/>
   </bookViews>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB6B681-648B-4E88-8AC9-9E5B59DD4D28}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +639,7 @@
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -650,7 +649,7 @@
     <col min="16" max="16" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -661,8 +660,13 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -685,8 +689,17 @@
         <v>28</v>
       </c>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -709,8 +722,17 @@
         <v>43483</v>
       </c>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -733,9 +755,17 @@
         <v>42446</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -758,9 +788,17 @@
         <v>43177</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -771,17 +809,12 @@
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="I7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="M7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -800,23 +833,14 @@
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -835,23 +859,14 @@
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -870,23 +885,14 @@
       <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2</v>
-      </c>
-      <c r="M10" s="8">
-        <v>2</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="I10" s="8">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -905,23 +911,14 @@
       <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="8">
-        <v>3</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8" t="s">
+      <c r="I11" s="8">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -940,15 +937,14 @@
       <c r="G12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="M12" s="8">
+      <c r="I12" s="8">
         <v>4</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -967,10 +963,8 @@
       <c r="G13" s="6">
         <v>4</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -989,10 +983,8 @@
       <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -1011,12 +1003,11 @@
       <c r="G15" s="6">
         <v>6</v>
       </c>
-      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A1:G1"/>
